--- a/DAVID/PPAR.DAVID_toJoin.xlsx
+++ b/DAVID/PPAR.DAVID_toJoin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\ABRG_GBIRG_OntologyStudy\DAVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\DAVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E75AC024-E7C6-4B10-94B7-CF765A827516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{372022E3-68A4-4A95-985F-17C689DF2E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="PPAR.DAVID" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="129">
   <si>
     <t>Category</t>
   </si>
@@ -226,6 +226,12 @@
     <t>ENSMUSG00000037071, ENSMUSG00000020777, ENSMUSG00000050195, ENSMUSG00000029098, ENSMUSG00000025202, ENSMUSG00000036138, ENSMUSG00000025203, ENSMUSG00000010651, ENSMUSG00000024665</t>
   </si>
   <si>
+    <t>GO:0042632~cholesterol homeostasis</t>
+  </si>
+  <si>
+    <t>ENSMUSG00000028240, ENSMUSG00000032079, ENSMUSG00000005681, ENSMUSG00000028773, ENSMUSG00000002108, ENSMUSG00000015568, ENSMUSG00000032083, ENSMUSG00000032081, ENSMUSG00000062515</t>
+  </si>
+  <si>
     <t>mmu04931:Insulin resistance</t>
   </si>
   <si>
@@ -379,16 +385,25 @@
     <t>ENSMUSG00000022878, ENSMUSG00000015846, ENSMUSG00000015568, ENSMUSG00000000440</t>
   </si>
   <si>
-    <t>ENSMUSG00000015846, ENSMUSG00000039656, ENSMUSG00000015843, ENSMUSG00000024122</t>
+    <t>R-MMU-2142816:R-MMU-2142816</t>
+  </si>
+  <si>
+    <t>m_fxrPathway:FXR and LXR Regulation of Cholesterol Metabolism</t>
+  </si>
+  <si>
+    <t>ENSMUSG00000015846, ENSMUSG00000002108, ENSMUSG00000020405</t>
+  </si>
+  <si>
+    <t>m_PPARgPathway:Role of PPAR-gamma Coactivators in Obesity and Thermogenesis</t>
+  </si>
+  <si>
+    <t>ENSMUSG00000015846, ENSMUSG00000015568, ENSMUSG00000000440</t>
   </si>
   <si>
     <t>m_cptPathway:Mitochondrial Carnitine Palmitoyltransferase (CPT) System</t>
   </si>
   <si>
     <t>ENSMUSG00000028607, ENSMUSG00000024900</t>
-  </si>
-  <si>
-    <t>mmu04919:Thyroid hormone signaling pathway</t>
   </si>
   <si>
     <t>Hit</t>
@@ -1233,14 +1248,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1284,15 +1299,15 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1304,7 +1319,7 @@
         <v>5.0748737171865698E-6</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -1328,15 +1343,15 @@
         <v>1.16722095495291E-2</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1348,7 +1363,7 @@
         <v>1.7219610356171999E-5</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -1372,15 +1387,15 @@
         <v>1.9802551909597801E-2</v>
       </c>
       <c r="N3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1392,7 +1407,7 @@
         <v>6.90793756074754E-5</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -1416,232 +1431,232 @@
         <v>5.2960854632397802E-2</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2.6315789473684199</v>
+        <v>3.9473684210526301</v>
       </c>
       <c r="E5">
-        <v>3.45325961746187E-2</v>
+        <v>2.5680623495846402E-3</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G5">
         <v>16</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I5">
         <v>1289</v>
       </c>
       <c r="J5">
-        <v>53.7083333333333</v>
+        <v>34.526785714285701</v>
       </c>
       <c r="K5">
-        <v>0.58462496383923301</v>
+        <v>6.2261484488275898E-2</v>
       </c>
       <c r="L5">
-        <v>0.138130384698475</v>
+        <v>1.5408374097507799E-2</v>
       </c>
       <c r="M5">
-        <v>13.2374952002705</v>
+        <v>1.4766358510111699</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3.9473684210526301</v>
+      </c>
+      <c r="E6">
+        <v>5.3927460929080497E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>43.421052631578902</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6.4691324251103898E-48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>73</v>
-      </c>
       <c r="H6">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>18082</v>
+        <v>1289</v>
       </c>
       <c r="J6">
-        <v>52.397787144362397</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4.0302695008437702E-45</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4.0302695008437702E-45</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3.6227141580618099E-43</v>
+        <v>24.168749999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.12644438818244499</v>
+      </c>
+      <c r="L6">
+        <v>2.5885181245958601E-2</v>
+      </c>
+      <c r="M6">
+        <v>2.4806632027376998</v>
       </c>
       <c r="N6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2.6315789473684199</v>
+      </c>
+      <c r="E7">
+        <v>3.45325961746187E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7">
         <v>16</v>
       </c>
-      <c r="C7">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>48.684210526315702</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.74648583494438E-38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>73</v>
-      </c>
       <c r="H7">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>18082</v>
+        <v>1289</v>
       </c>
       <c r="J7">
-        <v>19.966991971826701</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.0880606751703399E-35</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5.4403033758517398E-36</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4.8901603378442601E-34</v>
+        <v>53.7083333333333</v>
+      </c>
+      <c r="K7">
+        <v>0.58462496383923301</v>
+      </c>
+      <c r="L7">
+        <v>0.138130384698475</v>
+      </c>
+      <c r="M7">
+        <v>13.2374952002705</v>
       </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>14.473684210526301</v>
+        <v>43.421052631578902</v>
       </c>
       <c r="E8" s="1">
-        <v>2.22244471232677E-20</v>
+        <v>6.4691324251103898E-48</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>73</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="I8">
         <v>18082</v>
       </c>
       <c r="J8">
-        <v>151.37138508371299</v>
+        <v>52.397787144362397</v>
       </c>
       <c r="K8" s="1">
-        <v>1.3845830557795801E-17</v>
+        <v>4.0302695008437702E-45</v>
       </c>
       <c r="L8" s="1">
-        <v>4.6152768525985997E-18</v>
+        <v>4.0302695008437702E-45</v>
       </c>
       <c r="M8" s="1">
-        <v>4.14856346300998E-16</v>
+        <v>3.6227141580618099E-43</v>
       </c>
       <c r="N8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>17.105263157894701</v>
+        <v>48.684210526315702</v>
       </c>
       <c r="E9" s="1">
-        <v>1.14624587132164E-19</v>
+        <v>1.74648583494438E-38</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>73</v>
       </c>
       <c r="H9">
-        <v>44</v>
+        <v>459</v>
       </c>
       <c r="I9">
         <v>18082</v>
       </c>
       <c r="J9">
-        <v>73.183686176836801</v>
+        <v>19.966991971826701</v>
       </c>
       <c r="K9" s="1">
-        <v>7.1411117783338198E-17</v>
+        <v>1.0880606751703399E-35</v>
       </c>
       <c r="L9" s="1">
-        <v>1.78527794458345E-17</v>
+        <v>5.4403033758517398E-36</v>
       </c>
       <c r="M9" s="1">
-        <v>1.6047442198502899E-15</v>
+        <v>4.8901603378442601E-34</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1653,670 +1668,670 @@
         <v>14.473684210526301</v>
       </c>
       <c r="E10" s="1">
-        <v>3.0038816125954598E-16</v>
+        <v>2.22244471232677E-20</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>73</v>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>18082</v>
       </c>
       <c r="J10">
-        <v>69.863716192483295</v>
+        <v>151.37138508371299</v>
       </c>
       <c r="K10" s="1">
-        <v>2.07500683302441E-13</v>
+        <v>1.3845830557795801E-17</v>
       </c>
       <c r="L10" s="1">
-        <v>3.7428364892939498E-14</v>
+        <v>4.6152768525985997E-18</v>
       </c>
       <c r="M10" s="1">
-        <v>3.3643474061069202E-12</v>
+        <v>4.14856346300998E-16</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>10.5263157894736</v>
+        <v>17.105263157894701</v>
       </c>
       <c r="E11" s="1">
-        <v>1.3961498003073E-15</v>
+        <v>1.14624587132164E-19</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>73</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>18082</v>
       </c>
       <c r="J11">
-        <v>198.158904109589</v>
+        <v>73.183686176836801</v>
       </c>
       <c r="K11" s="1">
-        <v>8.9916962764391398E-13</v>
+        <v>7.1411117783338198E-17</v>
       </c>
       <c r="L11" s="1">
-        <v>1.44966887598574E-13</v>
+        <v>1.78527794458345E-17</v>
       </c>
       <c r="M11" s="1">
-        <v>1.3030731469534801E-11</v>
+        <v>1.6047442198502899E-15</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>11.8421052631578</v>
+        <v>14.473684210526301</v>
       </c>
       <c r="E12" s="1">
-        <v>1.7861907322977E-15</v>
+        <v>3.0038816125954598E-16</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>73</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I12">
         <v>18082</v>
       </c>
       <c r="J12">
-        <v>123.849315068493</v>
+        <v>69.863716192483295</v>
       </c>
       <c r="K12" s="1">
-        <v>1.10667031094635E-12</v>
+        <v>2.07500683302441E-13</v>
       </c>
       <c r="L12" s="1">
-        <v>1.5897097517449501E-13</v>
+        <v>3.7428364892939498E-14</v>
       </c>
       <c r="M12" s="1">
-        <v>1.4289525858381601E-11</v>
+        <v>3.3643474061069202E-12</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>10.5263157894736</v>
       </c>
       <c r="E13" s="1">
-        <v>1.87150658995328E-13</v>
+        <v>1.3961498003073E-15</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>73</v>
       </c>
       <c r="H13">
-        <v>463</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>18082</v>
       </c>
       <c r="J13">
-        <v>10.164738601733699</v>
+        <v>198.158904109589</v>
       </c>
       <c r="K13" s="1">
-        <v>1.1661538401597201E-10</v>
+        <v>8.9916962764391398E-13</v>
       </c>
       <c r="L13" s="1">
-        <v>1.4574357569261099E-11</v>
+        <v>1.44966887598574E-13</v>
       </c>
       <c r="M13" s="1">
-        <v>1.3100546129672899E-9</v>
+        <v>1.3030731469534801E-11</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>7.8947368421052602</v>
+        <v>11.8421052631578</v>
       </c>
       <c r="E14" s="1">
-        <v>1.81378578530036E-11</v>
+        <v>1.7861907322977E-15</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>73</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <v>18082</v>
       </c>
       <c r="J14">
-        <v>212.31311154598799</v>
+        <v>123.849315068493</v>
       </c>
       <c r="K14" s="1">
-        <v>1.12998645995787E-8</v>
+        <v>1.10667031094635E-12</v>
       </c>
       <c r="L14" s="1">
-        <v>1.2555428269357001E-9</v>
+        <v>1.5897097517449501E-13</v>
       </c>
       <c r="M14" s="1">
-        <v>1.12857782196467E-7</v>
+        <v>1.4289525858381601E-11</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>35.5263157894736</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1">
-        <v>1.4213251623007001E-18</v>
+        <v>1.87150658995328E-13</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G15">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H15">
-        <v>751</v>
+        <v>463</v>
       </c>
       <c r="I15">
-        <v>19662</v>
+        <v>18082</v>
       </c>
       <c r="J15">
-        <v>9.3011773775317099</v>
+        <v>10.164738601733699</v>
       </c>
       <c r="K15" s="1">
-        <v>1.4071119106776899E-16</v>
+        <v>1.1661538401597201E-10</v>
       </c>
       <c r="L15" s="1">
-        <v>1.4071119106776899E-16</v>
+        <v>1.4574357569261099E-11</v>
       </c>
       <c r="M15" s="1">
-        <v>1.12284687821755E-14</v>
+        <v>1.3100546129672899E-9</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>15.789473684210501</v>
+        <v>7.8947368421052602</v>
       </c>
       <c r="E16" s="1">
-        <v>2.5577927102133199E-12</v>
+        <v>1.81378578530036E-11</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G16">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H16">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>19662</v>
+        <v>18082</v>
       </c>
       <c r="J16">
-        <v>23.698674166331799</v>
+        <v>212.31311154598799</v>
       </c>
       <c r="K16" s="1">
-        <v>2.5322643981695499E-10</v>
+        <v>1.12998645995787E-8</v>
       </c>
       <c r="L16" s="1">
-        <v>1.26610739155559E-10</v>
+        <v>1.2555428269357001E-9</v>
       </c>
       <c r="M16" s="1">
-        <v>1.0103281205342601E-8</v>
+        <v>1.12857782196467E-7</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>38.157894736842103</v>
+        <v>11.8421052631578</v>
       </c>
       <c r="E17" s="1">
-        <v>1.0451991108302099E-11</v>
+        <v>1.3771902323845601E-10</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G17">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H17">
-        <v>1721</v>
+        <v>63</v>
       </c>
       <c r="I17">
-        <v>19662</v>
+        <v>18082</v>
       </c>
       <c r="J17">
-        <v>4.3594452429737904</v>
+        <v>35.385518590997997</v>
       </c>
       <c r="K17" s="1">
-        <v>1.03474528945213E-9</v>
+        <v>8.5798969706729596E-8</v>
       </c>
       <c r="L17" s="1">
-        <v>3.4491570657397E-10</v>
+        <v>8.5798951477558096E-9</v>
       </c>
       <c r="M17" s="1">
-        <v>2.7523576585195601E-8</v>
+        <v>7.7122653013535398E-7</v>
       </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>32.894736842105203</v>
+        <v>35.5263157894736</v>
       </c>
       <c r="E18" s="1">
-        <v>5.5727044583163602E-11</v>
+        <v>1.4213251623007001E-18</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>76</v>
       </c>
       <c r="H18">
-        <v>1323</v>
+        <v>751</v>
       </c>
       <c r="I18">
         <v>19662</v>
       </c>
       <c r="J18">
-        <v>4.8887098699128702</v>
+        <v>9.3011773775317099</v>
       </c>
       <c r="K18" s="1">
-        <v>5.5169818713451896E-9</v>
+        <v>1.4071119106776899E-16</v>
       </c>
       <c r="L18" s="1">
-        <v>1.3792443534333E-9</v>
+        <v>1.4071119106776899E-16</v>
       </c>
       <c r="M18" s="1">
-        <v>1.1006091305174801E-7</v>
+        <v>1.12284687821755E-14</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>13.157894736842101</v>
+        <v>15.789473684210501</v>
       </c>
       <c r="E19" s="1">
-        <v>6.6942949695555398E-9</v>
+        <v>2.5577927102133199E-12</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>76</v>
       </c>
       <c r="H19">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I19">
         <v>19662</v>
       </c>
       <c r="J19">
-        <v>16.909184726522099</v>
+        <v>23.698674166331799</v>
       </c>
       <c r="K19" s="1">
-        <v>6.6273498833257996E-7</v>
+        <v>2.5322643981695499E-10</v>
       </c>
       <c r="L19" s="1">
-        <v>1.3254704039719899E-7</v>
+        <v>1.26610739155559E-10</v>
       </c>
       <c r="M19" s="1">
-        <v>1.0576986051897701E-5</v>
+        <v>1.0103281205342601E-8</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>22.368421052631501</v>
+        <v>38.157894736842103</v>
       </c>
       <c r="E20" s="1">
-        <v>8.2875646671725298E-9</v>
+        <v>1.0451991108302099E-11</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="G20">
         <v>76</v>
       </c>
       <c r="H20">
-        <v>710</v>
+        <v>1721</v>
       </c>
       <c r="I20">
         <v>19662</v>
       </c>
       <c r="J20">
-        <v>6.1944773906597401</v>
+        <v>4.3594452429737904</v>
       </c>
       <c r="K20" s="1">
-        <v>8.2046856564321704E-7</v>
+        <v>1.03474528945213E-9</v>
       </c>
       <c r="L20" s="1">
-        <v>1.36744817008346E-7</v>
+        <v>3.4491570657397E-10</v>
       </c>
       <c r="M20" s="1">
-        <v>1.09119601451105E-5</v>
+        <v>2.7523576585195601E-8</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>10.5263157894736</v>
+        <v>32.894736842105203</v>
       </c>
       <c r="E21" s="1">
-        <v>6.9313075031432904E-8</v>
+        <v>5.5727044583163602E-11</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G21">
         <v>76</v>
       </c>
       <c r="H21">
-        <v>94</v>
+        <v>1323</v>
       </c>
       <c r="I21">
         <v>19662</v>
       </c>
       <c r="J21">
-        <v>22.017917133258599</v>
+        <v>4.8887098699128702</v>
       </c>
       <c r="K21" s="1">
-        <v>6.8619711250939003E-6</v>
+        <v>5.5169818713451896E-9</v>
       </c>
       <c r="L21" s="1">
-        <v>9.8028491830169396E-7</v>
+        <v>1.3792443534333E-9</v>
       </c>
       <c r="M21" s="1">
-        <v>7.8224756106902798E-5</v>
+        <v>1.1006091305174801E-7</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>6.5789473684210504</v>
+        <v>13.157894736842101</v>
       </c>
       <c r="E22" s="1">
-        <v>1.3600963499353299E-7</v>
+        <v>6.6942949695555398E-9</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G22">
         <v>76</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="I22">
         <v>19662</v>
       </c>
       <c r="J22">
-        <v>99.504048582995907</v>
+        <v>16.909184726522099</v>
       </c>
       <c r="K22" s="1">
-        <v>1.3464864128454E-5</v>
+        <v>6.6273498833257996E-7</v>
       </c>
       <c r="L22" s="1">
-        <v>1.6831192330449701E-6</v>
+        <v>1.3254704039719899E-7</v>
       </c>
       <c r="M22" s="1">
-        <v>1.3430951455611299E-4</v>
+        <v>1.0576986051897701E-5</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>6.5789473684210504</v>
+        <v>22.368421052631501</v>
       </c>
       <c r="E23" s="1">
-        <v>7.2462652755970698E-7</v>
+        <v>8.2875646671725298E-9</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G23">
         <v>76</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>710</v>
       </c>
       <c r="I23">
         <v>19662</v>
       </c>
       <c r="J23">
-        <v>68.081717451523502</v>
+        <v>6.1944773906597401</v>
       </c>
       <c r="K23" s="1">
-        <v>7.17354791075486E-5</v>
+        <v>8.2046856564321704E-7</v>
       </c>
       <c r="L23" s="1">
-        <v>7.9708918031567801E-6</v>
+        <v>1.36744817008346E-7</v>
       </c>
       <c r="M23" s="1">
-        <v>6.3606106308018696E-4</v>
+        <v>1.09119601451105E-5</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>7.8947368421052602</v>
+        <v>10.5263157894736</v>
       </c>
       <c r="E24" s="1">
-        <v>1.7548142868009999E-6</v>
+        <v>6.9313075031432904E-8</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G24">
         <v>76</v>
       </c>
       <c r="H24">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="I24">
         <v>19662</v>
       </c>
       <c r="J24">
-        <v>29.287984111221402</v>
+        <v>22.017917133258599</v>
       </c>
       <c r="K24" s="1">
-        <v>1.7371167719837301E-4</v>
+        <v>6.8619711250939003E-6</v>
       </c>
       <c r="L24" s="1">
-        <v>1.7372661439329902E-5</v>
-      </c>
-      <c r="M24">
-        <v>1.38630328657279E-3</v>
+        <v>9.8028491830169396E-7</v>
+      </c>
+      <c r="M24" s="1">
+        <v>7.8224756106902798E-5</v>
       </c>
       <c r="N24" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>13.157894736842101</v>
+        <v>6.5789473684210504</v>
       </c>
       <c r="E25" s="1">
-        <v>2.1482693034051499E-19</v>
+        <v>1.3600963499353299E-7</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G25">
         <v>76</v>
@@ -2325,731 +2340,731 @@
         <v>13</v>
       </c>
       <c r="I25">
-        <v>17446</v>
+        <v>19662</v>
       </c>
       <c r="J25">
-        <v>176.57894736842101</v>
+        <v>99.504048582995907</v>
       </c>
       <c r="K25" s="1">
-        <v>4.7047097744572802E-17</v>
+        <v>1.3464864128454E-5</v>
       </c>
       <c r="L25" s="1">
-        <v>4.7047097744572802E-17</v>
+        <v>1.6831192330449701E-6</v>
       </c>
       <c r="M25" s="1">
-        <v>3.5446443506185E-15</v>
+        <v>1.3430951455611299E-4</v>
       </c>
       <c r="N25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>14.473684210526301</v>
+        <v>6.5789473684210504</v>
       </c>
       <c r="E26" s="1">
-        <v>5.7771783399859102E-18</v>
+        <v>7.2462652755970698E-7</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G26">
         <v>76</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I26">
-        <v>17446</v>
+        <v>19662</v>
       </c>
       <c r="J26">
-        <v>97.118421052631504</v>
+        <v>68.081717451523502</v>
       </c>
       <c r="K26" s="1">
-        <v>1.2652020564569101E-15</v>
+        <v>7.17354791075486E-5</v>
       </c>
       <c r="L26" s="1">
-        <v>6.3260102822845701E-16</v>
+        <v>7.9708918031567801E-6</v>
       </c>
       <c r="M26" s="1">
-        <v>4.7661721304883798E-14</v>
+        <v>6.3606106308018696E-4</v>
       </c>
       <c r="N26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>22.368421052631501</v>
+        <v>7.8947368421052602</v>
       </c>
       <c r="E27" s="1">
-        <v>2.6223252306200499E-14</v>
+        <v>1.7548142868009999E-6</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="G27">
         <v>76</v>
       </c>
       <c r="H27">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="I27">
-        <v>17446</v>
+        <v>19662</v>
       </c>
       <c r="J27">
-        <v>14.4533138401559</v>
+        <v>29.287984111221402</v>
       </c>
       <c r="K27" s="1">
-        <v>5.7380766804726502E-12</v>
+        <v>1.7371167719837301E-4</v>
       </c>
       <c r="L27" s="1">
-        <v>1.9142974183526398E-12</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1.4422788768410301E-10</v>
+        <v>1.7372661439329902E-5</v>
+      </c>
+      <c r="M27">
+        <v>1.38630328657279E-3</v>
       </c>
       <c r="N27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>7.8947368421052602</v>
+        <v>13.157894736842101</v>
       </c>
       <c r="E28" s="1">
-        <v>7.1088524802961202E-11</v>
+        <v>2.1482693034051499E-19</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>76</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I28">
         <v>17446</v>
       </c>
       <c r="J28">
-        <v>172.16447368421001</v>
+        <v>176.57894736842101</v>
       </c>
       <c r="K28" s="1">
-        <v>1.5568398792353799E-8</v>
+        <v>4.7047097744572802E-17</v>
       </c>
       <c r="L28" s="1">
-        <v>3.1136773863697E-9</v>
+        <v>4.7047097744572802E-17</v>
       </c>
       <c r="M28" s="1">
-        <v>2.34592131849772E-7</v>
+        <v>3.5446443506185E-15</v>
       </c>
       <c r="N28" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>7.8947368421052602</v>
+        <v>14.473684210526301</v>
       </c>
       <c r="E29" s="1">
-        <v>7.1088524802961202E-11</v>
+        <v>5.7771783399859102E-18</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>76</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I29">
         <v>17446</v>
       </c>
       <c r="J29">
-        <v>172.16447368421001</v>
+        <v>97.118421052631504</v>
       </c>
       <c r="K29" s="1">
-        <v>1.5568398792353799E-8</v>
+        <v>1.2652020564569101E-15</v>
       </c>
       <c r="L29" s="1">
-        <v>3.1136773863697E-9</v>
+        <v>6.3260102822845701E-16</v>
       </c>
       <c r="M29" s="1">
-        <v>2.34592131849772E-7</v>
+        <v>4.7661721304883798E-14</v>
       </c>
       <c r="N29" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>15.789473684210501</v>
+        <v>22.368421052631501</v>
       </c>
       <c r="E30" s="1">
-        <v>1.63231455077068E-9</v>
+        <v>2.6223252306200499E-14</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G30">
         <v>76</v>
       </c>
       <c r="H30">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="I30">
         <v>17446</v>
       </c>
       <c r="J30">
-        <v>12.993545183714</v>
+        <v>14.4533138401559</v>
       </c>
       <c r="K30" s="1">
-        <v>3.5747681315090302E-7</v>
+        <v>5.7380766804726502E-12</v>
       </c>
       <c r="L30" s="1">
-        <v>5.9579481103129899E-8</v>
+        <v>1.9142974183526398E-12</v>
       </c>
       <c r="M30" s="1">
-        <v>4.48886501461938E-6</v>
+        <v>1.4422788768410301E-10</v>
       </c>
       <c r="N30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>22.368421052631501</v>
+        <v>7.8947368421052602</v>
       </c>
       <c r="E31" s="1">
-        <v>4.4903909707515699E-9</v>
+        <v>7.1088524802961202E-11</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G31">
         <v>76</v>
       </c>
       <c r="H31">
-        <v>604</v>
+        <v>8</v>
       </c>
       <c r="I31">
         <v>17446</v>
       </c>
       <c r="J31">
-        <v>6.4609184384802996</v>
+        <v>172.16447368421001</v>
       </c>
       <c r="K31" s="1">
-        <v>9.8339513632250601E-7</v>
+        <v>1.5568398792353799E-8</v>
       </c>
       <c r="L31" s="1">
-        <v>1.2850693710457801E-7</v>
+        <v>3.1136773863697E-9</v>
       </c>
       <c r="M31" s="1">
-        <v>9.6820295078792297E-6</v>
+        <v>2.34592131849772E-7</v>
       </c>
       <c r="N31" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>6.5789473684210504</v>
+        <v>7.8947368421052602</v>
       </c>
       <c r="E32" s="1">
-        <v>4.6943173371535699E-9</v>
+        <v>7.1088524802961202E-11</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G32">
         <v>76</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I32">
         <v>17446</v>
       </c>
       <c r="J32">
-        <v>191.293859649122</v>
+        <v>172.16447368421001</v>
       </c>
       <c r="K32" s="1">
-        <v>1.02805498003455E-6</v>
+        <v>1.5568398792353799E-8</v>
       </c>
       <c r="L32" s="1">
-        <v>1.2850693710457801E-7</v>
+        <v>3.1136773863697E-9</v>
       </c>
       <c r="M32" s="1">
-        <v>9.6820295078792297E-6</v>
+        <v>2.34592131849772E-7</v>
       </c>
       <c r="N32" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>9.2105263157894708</v>
+        <v>15.789473684210501</v>
       </c>
       <c r="E33" s="1">
-        <v>7.5699608194694593E-9</v>
+        <v>1.63231455077068E-9</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G33">
         <v>76</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="I33">
         <v>17446</v>
       </c>
       <c r="J33">
-        <v>45.910526315789397</v>
+        <v>12.993545183714</v>
       </c>
       <c r="K33" s="1">
-        <v>1.65782004057923E-6</v>
+        <v>3.5747681315090302E-7</v>
       </c>
       <c r="L33" s="1">
-        <v>1.8420237994042301E-7</v>
+        <v>5.9579481103129899E-8</v>
       </c>
       <c r="M33" s="1">
-        <v>1.38782615023606E-5</v>
+        <v>4.48886501461938E-6</v>
       </c>
       <c r="N33" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>18.421052631578899</v>
+        <v>22.368421052631501</v>
       </c>
       <c r="E34" s="1">
-        <v>1.1491033123278701E-7</v>
+        <v>4.4903909707515699E-9</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G34">
         <v>76</v>
       </c>
       <c r="H34">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="I34">
         <v>17446</v>
       </c>
       <c r="J34">
-        <v>6.7092627183825897</v>
+        <v>6.4609184384802996</v>
       </c>
       <c r="K34" s="1">
-        <v>2.5165047344621801E-5</v>
+        <v>9.8339513632250601E-7</v>
       </c>
       <c r="L34" s="1">
-        <v>2.5165362539980501E-6</v>
+        <v>1.2850693710457801E-7</v>
       </c>
       <c r="M34" s="1">
-        <v>1.8960204653409901E-4</v>
+        <v>9.6820295078792297E-6</v>
       </c>
       <c r="N34" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C35">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>97.368421052631504</v>
+        <v>6.5789473684210504</v>
       </c>
       <c r="E35" s="1">
-        <v>1.1664939724333501E-165</v>
+        <v>4.6943173371535699E-9</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="G35">
         <v>76</v>
       </c>
       <c r="H35">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>7691</v>
+        <v>17446</v>
       </c>
       <c r="J35">
-        <v>93.607565789473597</v>
+        <v>191.293859649122</v>
       </c>
       <c r="K35" s="1">
-        <v>8.8653541904935098E-164</v>
+        <v>1.02805498003455E-6</v>
       </c>
       <c r="L35" s="1">
-        <v>8.8653541904935098E-164</v>
+        <v>1.2850693710457801E-7</v>
       </c>
       <c r="M35" s="1">
-        <v>6.7656650401134703E-162</v>
+        <v>9.6820295078792297E-6</v>
       </c>
       <c r="N35" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>27.6315789473684</v>
+        <v>9.2105263157894708</v>
       </c>
       <c r="E36" s="1">
-        <v>8.7631735212136702E-29</v>
+        <v>7.5699608194694593E-9</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G36">
         <v>76</v>
       </c>
       <c r="H36">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I36">
-        <v>7691</v>
+        <v>17446</v>
       </c>
       <c r="J36">
-        <v>43.370300751879697</v>
+        <v>45.910526315789397</v>
       </c>
       <c r="K36" s="1">
-        <v>6.6600118761223898E-27</v>
+        <v>1.65782004057923E-6</v>
       </c>
       <c r="L36" s="1">
-        <v>3.3300059380611899E-27</v>
+        <v>1.8420237994042301E-7</v>
       </c>
       <c r="M36" s="1">
-        <v>2.54132032115196E-25</v>
+        <v>1.38782615023606E-5</v>
       </c>
       <c r="N36" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>27.6315789473684</v>
+        <v>18.421052631578899</v>
       </c>
       <c r="E37" s="1">
-        <v>2.3683415408964301E-28</v>
+        <v>1.1491033123278701E-7</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="G37">
         <v>76</v>
       </c>
       <c r="H37">
-        <v>51</v>
+        <v>479</v>
       </c>
       <c r="I37">
-        <v>7691</v>
+        <v>17446</v>
       </c>
       <c r="J37">
-        <v>41.669504643962803</v>
+        <v>6.7092627183825897</v>
       </c>
       <c r="K37" s="1">
-        <v>1.7999395710812899E-26</v>
+        <v>2.5165047344621801E-5</v>
       </c>
       <c r="L37" s="1">
-        <v>5.99979857027096E-27</v>
+        <v>2.5165362539980501E-6</v>
       </c>
       <c r="M37" s="1">
-        <v>4.5787936457330998E-25</v>
+        <v>1.8960204653409901E-4</v>
       </c>
       <c r="N37" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D38">
-        <v>21.052631578947299</v>
+        <v>97.368421052631504</v>
       </c>
       <c r="E38" s="1">
-        <v>1.1439514054687899E-16</v>
+        <v>1.1664939724333501E-165</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G38">
         <v>76</v>
       </c>
       <c r="H38">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I38">
         <v>7691</v>
       </c>
       <c r="J38">
-        <v>22.488304093567201</v>
+        <v>93.607565789473597</v>
       </c>
       <c r="K38" s="1">
-        <v>8.4376949871511897E-15</v>
+        <v>8.8653541904935098E-164</v>
       </c>
       <c r="L38" s="1">
-        <v>2.1735076703907099E-15</v>
+        <v>8.8653541904935098E-164</v>
       </c>
       <c r="M38" s="1">
-        <v>1.6587295379297499E-13</v>
+        <v>6.7656650401134703E-162</v>
       </c>
       <c r="N38" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>17.105263157894701</v>
+        <v>27.6315789473684</v>
       </c>
       <c r="E39" s="1">
-        <v>1.6611000690418199E-11</v>
+        <v>8.7631735212136702E-29</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G39">
         <v>76</v>
       </c>
       <c r="H39">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="I39">
         <v>7691</v>
       </c>
       <c r="J39">
-        <v>15.850190234622699</v>
+        <v>43.370300751879697</v>
       </c>
       <c r="K39" s="1">
-        <v>1.2624394862825699E-9</v>
+        <v>6.6600118761223898E-27</v>
       </c>
       <c r="L39" s="1">
-        <v>2.52487210494357E-10</v>
+        <v>3.3300059380611899E-27</v>
       </c>
       <c r="M39" s="1">
-        <v>1.9268760800885098E-8</v>
+        <v>2.54132032115196E-25</v>
       </c>
       <c r="N39" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>11.8421052631578</v>
+        <v>27.6315789473684</v>
       </c>
       <c r="E40" s="1">
-        <v>1.06788965702563E-10</v>
+        <v>2.3683415408964301E-28</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G40">
         <v>76</v>
       </c>
       <c r="H40">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I40">
         <v>7691</v>
       </c>
       <c r="J40">
-        <v>33.732456140350799</v>
+        <v>41.669504643962803</v>
       </c>
       <c r="K40" s="1">
-        <v>8.1159572395961194E-9</v>
+        <v>1.7999395710812899E-26</v>
       </c>
       <c r="L40" s="1">
-        <v>1.3526602322324599E-9</v>
+        <v>5.99979857027096E-27</v>
       </c>
       <c r="M40" s="1">
-        <v>1.03229333512477E-7</v>
+        <v>4.5787936457330998E-25</v>
       </c>
       <c r="N40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>17.105263157894701</v>
+        <v>21.052631578947299</v>
       </c>
       <c r="E41" s="1">
-        <v>4.9069640766603701E-10</v>
+        <v>1.1439514054687899E-16</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>76</v>
       </c>
       <c r="H41">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="I41">
         <v>7691</v>
       </c>
       <c r="J41">
-        <v>11.9596889952153</v>
+        <v>22.488304093567201</v>
       </c>
       <c r="K41" s="1">
-        <v>3.7292923638077E-8</v>
+        <v>8.4376949871511897E-15</v>
       </c>
       <c r="L41" s="1">
-        <v>5.3275609975169697E-9</v>
+        <v>2.1735076703907099E-15</v>
       </c>
       <c r="M41" s="1">
-        <v>4.0657702349471598E-7</v>
+        <v>1.6587295379297499E-13</v>
       </c>
       <c r="N41" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
@@ -3061,391 +3076,391 @@
         <v>17.105263157894701</v>
       </c>
       <c r="E42" s="1">
-        <v>2.8836087398673801E-9</v>
+        <v>1.6611000690418199E-11</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G42">
         <v>76</v>
       </c>
       <c r="H42">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>7691</v>
       </c>
       <c r="J42">
-        <v>10.277857730263101</v>
+        <v>15.850190234622699</v>
       </c>
       <c r="K42" s="1">
-        <v>2.19154236424934E-7</v>
+        <v>1.2624394862825699E-9</v>
       </c>
       <c r="L42" s="1">
-        <v>2.73942830287401E-8</v>
+        <v>2.52487210494357E-10</v>
       </c>
       <c r="M42" s="1">
-        <v>2.09061633640385E-6</v>
+        <v>1.9268760800885098E-8</v>
       </c>
       <c r="N42" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>7.8947368421052602</v>
+        <v>11.8421052631578</v>
       </c>
       <c r="E43" s="1">
-        <v>3.0957397589466199E-7</v>
+        <v>1.06788965702563E-10</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G43">
         <v>76</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I43">
         <v>7691</v>
       </c>
       <c r="J43">
-        <v>37.949013157894697</v>
+        <v>33.732456140350799</v>
       </c>
       <c r="K43" s="1">
-        <v>2.3527349037655299E-5</v>
+        <v>8.1159572395961194E-9</v>
       </c>
       <c r="L43" s="1">
-        <v>2.6141802408882599E-6</v>
+        <v>1.3526602322324599E-9</v>
       </c>
       <c r="M43" s="1">
-        <v>1.9950322890989301E-4</v>
+        <v>1.03229333512477E-7</v>
       </c>
       <c r="N43" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>6.5789473684210504</v>
+        <v>17.105263157894701</v>
       </c>
       <c r="E44" s="1">
-        <v>7.7555047221093906E-6</v>
+        <v>4.9069640766603701E-10</v>
       </c>
       <c r="F44" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="G44">
         <v>76</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="I44">
         <v>7691</v>
       </c>
       <c r="J44">
-        <v>36.141917293233</v>
+        <v>11.9596889952153</v>
       </c>
       <c r="K44" s="1">
-        <v>5.89246970285506E-4</v>
+        <v>3.7292923638077E-8</v>
       </c>
       <c r="L44" s="1">
-        <v>5.8941835888031403E-5</v>
-      </c>
-      <c r="M44">
-        <v>4.4981927388234502E-3</v>
+        <v>5.3275609975169697E-9</v>
+      </c>
+      <c r="M44" s="1">
+        <v>4.0657702349471598E-7</v>
       </c>
       <c r="N44" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>5.2631578947368398</v>
-      </c>
-      <c r="E45">
-        <v>9.9690904243093306E-2</v>
+        <v>17.105263157894701</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2.8836087398673801E-9</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="G45">
         <v>76</v>
       </c>
       <c r="H45">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="I45">
         <v>7691</v>
       </c>
       <c r="J45">
-        <v>3.5507848568790301</v>
-      </c>
-      <c r="K45">
-        <v>0.99965820596926103</v>
-      </c>
-      <c r="L45">
-        <v>0.31568786343646199</v>
-      </c>
-      <c r="M45">
-        <v>24.091968525414199</v>
+        <v>10.277857730263101</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2.19154236424934E-7</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2.73942830287401E-8</v>
+      </c>
+      <c r="M45" s="1">
+        <v>2.09061633640385E-6</v>
       </c>
       <c r="N45" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>10.5263157894736</v>
+        <v>7.8947368421052602</v>
       </c>
       <c r="E46" s="1">
-        <v>1.11816978093316E-11</v>
+        <v>3.0957397589466199E-7</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G46">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I46">
-        <v>7575</v>
+        <v>7691</v>
       </c>
       <c r="J46">
-        <v>62.732919254658299</v>
+        <v>37.949013157894697</v>
       </c>
       <c r="K46" s="1">
-        <v>1.9344379431629398E-9</v>
+        <v>2.3527349037655299E-5</v>
       </c>
       <c r="L46" s="1">
-        <v>1.9456154188237E-9</v>
+        <v>2.6141802408882599E-6</v>
       </c>
       <c r="M46" s="1">
-        <v>1.8114350451117199E-7</v>
+        <v>1.9950322890989301E-4</v>
       </c>
       <c r="N46" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>9.2105263157894708</v>
+        <v>6.5789473684210504</v>
       </c>
       <c r="E47" s="1">
-        <v>1.46784100992732E-8</v>
+        <v>7.7555047221093906E-6</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G47">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I47">
-        <v>7575</v>
+        <v>7691</v>
       </c>
       <c r="J47">
-        <v>38.423913043478201</v>
+        <v>36.141917293233</v>
       </c>
       <c r="K47" s="1">
-        <v>2.5393617510971399E-6</v>
+        <v>5.89246970285506E-4</v>
       </c>
       <c r="L47" s="1">
-        <v>1.27702167863677E-6</v>
-      </c>
-      <c r="M47" s="1">
-        <v>1.18895121804113E-4</v>
+        <v>5.8941835888031403E-5</v>
+      </c>
+      <c r="M47">
+        <v>4.4981927388234502E-3</v>
       </c>
       <c r="N47" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>9.2105263157894708</v>
+        <v>10.5263157894736</v>
       </c>
       <c r="E48" s="1">
-        <v>8.3580992266163993E-8</v>
+        <v>1.11816978093316E-11</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="G48">
         <v>69</v>
       </c>
       <c r="H48">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I48">
         <v>7575</v>
       </c>
       <c r="J48">
-        <v>29.556856187290901</v>
+        <v>62.732919254658299</v>
       </c>
       <c r="K48" s="1">
-        <v>1.4459407723266201E-5</v>
+        <v>1.9344379431629398E-9</v>
       </c>
       <c r="L48" s="1">
-        <v>4.1081104807272697E-6</v>
+        <v>1.9456154188237E-9</v>
       </c>
       <c r="M48" s="1">
-        <v>3.82479251653918E-4</v>
+        <v>1.8114350451117199E-7</v>
       </c>
       <c r="N48" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>7.8947368421052602</v>
+        <v>9.2105263157894708</v>
       </c>
       <c r="E49" s="1">
-        <v>9.4439321396029304E-8</v>
+        <v>1.46784100992732E-8</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G49">
         <v>69</v>
       </c>
       <c r="H49">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I49">
         <v>7575</v>
       </c>
       <c r="J49">
-        <v>47.049689440993703</v>
+        <v>38.423913043478201</v>
       </c>
       <c r="K49" s="1">
-        <v>1.6337869902849301E-5</v>
+        <v>2.5393617510971399E-6</v>
       </c>
       <c r="L49" s="1">
-        <v>4.1081104807272697E-6</v>
+        <v>1.27702167863677E-6</v>
       </c>
       <c r="M49" s="1">
-        <v>3.82479251653918E-4</v>
+        <v>1.18895121804113E-4</v>
       </c>
       <c r="N49" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>6.5789473684210504</v>
+        <v>9.2105263157894708</v>
       </c>
       <c r="E50" s="1">
-        <v>1.86960819787257E-6</v>
+        <v>8.3580992266163993E-8</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G50">
         <v>69</v>
       </c>
       <c r="H50">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I50">
         <v>7575</v>
       </c>
       <c r="J50">
-        <v>49.901185770750899</v>
+        <v>29.556856187290901</v>
       </c>
       <c r="K50" s="1">
-        <v>3.2339021870331198E-4</v>
+        <v>1.4459407723266201E-5</v>
       </c>
       <c r="L50" s="1">
-        <v>5.4241108787741197E-5</v>
-      </c>
-      <c r="M50">
-        <v>5.0500342664448698E-3</v>
+        <v>4.1081104807272697E-6</v>
+      </c>
+      <c r="M50" s="1">
+        <v>3.82479251653918E-4</v>
       </c>
       <c r="N50" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
@@ -3457,170 +3472,302 @@
         <v>7.8947368421052602</v>
       </c>
       <c r="E51" s="1">
-        <v>1.87038306164624E-6</v>
+        <v>9.4439321396029304E-8</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G51">
         <v>69</v>
       </c>
       <c r="H51">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I51">
         <v>7575</v>
       </c>
       <c r="J51">
-        <v>27.445652173913</v>
+        <v>47.049689440993703</v>
       </c>
       <c r="K51" s="1">
-        <v>3.2352422701908902E-4</v>
+        <v>1.6337869902849301E-5</v>
       </c>
       <c r="L51" s="1">
-        <v>5.4241108787741197E-5</v>
-      </c>
-      <c r="M51">
-        <v>5.0500342664448698E-3</v>
+        <v>4.1081104807272697E-6</v>
+      </c>
+      <c r="M51" s="1">
+        <v>3.82479251653918E-4</v>
       </c>
       <c r="N51" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>9.2105263157894708</v>
+        <v>6.5789473684210504</v>
       </c>
       <c r="E52" s="1">
-        <v>5.4832150978282698E-6</v>
+        <v>1.86960819787257E-6</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G52">
         <v>69</v>
       </c>
       <c r="H52">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="I52">
         <v>7575</v>
       </c>
       <c r="J52">
-        <v>15.0682011935208</v>
+        <v>49.901185770750899</v>
       </c>
       <c r="K52" s="1">
-        <v>9.4814903499440496E-4</v>
+        <v>3.2339021870331198E-4</v>
       </c>
       <c r="L52" s="1">
-        <v>1.3629706100316E-4</v>
+        <v>5.4241108787741197E-5</v>
       </c>
       <c r="M52">
-        <v>1.2689726369259699E-2</v>
+        <v>5.0500342664448698E-3</v>
       </c>
       <c r="N52" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>6.5789473684210504</v>
+        <v>7.8947368421052602</v>
       </c>
       <c r="E53" s="1">
-        <v>2.08012118725598E-5</v>
+        <v>1.87038306164624E-6</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G53">
         <v>69</v>
       </c>
       <c r="H53">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I53">
         <v>7575</v>
       </c>
       <c r="J53">
-        <v>28.8901601830663</v>
-      </c>
-      <c r="K53">
-        <v>3.5921797120308501E-3</v>
+        <v>27.445652173913</v>
+      </c>
+      <c r="K53" s="1">
+        <v>3.2352422701908902E-4</v>
       </c>
       <c r="L53" s="1">
-        <v>4.5242635822817702E-4</v>
+        <v>5.4241108787741197E-5</v>
       </c>
       <c r="M53">
-        <v>4.2122454041933703E-2</v>
+        <v>5.0500342664448698E-3</v>
       </c>
       <c r="N53" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>6.5789473684210504</v>
+        <v>9.2105263157894708</v>
       </c>
       <c r="E54" s="1">
-        <v>3.1687750578434803E-5</v>
+        <v>5.4832150978282698E-6</v>
       </c>
       <c r="F54" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="G54">
         <v>69</v>
       </c>
       <c r="H54">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I54">
         <v>7575</v>
       </c>
       <c r="J54">
+        <v>15.0682011935208</v>
+      </c>
+      <c r="K54" s="1">
+        <v>9.4814903499440496E-4</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1.3629706100316E-4</v>
+      </c>
+      <c r="M54">
+        <v>1.2689726369259699E-2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>6.5789473684210504</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2.08012118725598E-5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55">
+        <v>69</v>
+      </c>
+      <c r="H55">
+        <v>19</v>
+      </c>
+      <c r="I55">
+        <v>7575</v>
+      </c>
+      <c r="J55">
+        <v>28.8901601830663</v>
+      </c>
+      <c r="K55">
+        <v>3.5921797120308501E-3</v>
+      </c>
+      <c r="L55" s="1">
+        <v>4.5242635822817702E-4</v>
+      </c>
+      <c r="M55">
+        <v>4.2122454041933703E-2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>6.5789473684210504</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3.1687750578434803E-5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56">
+        <v>69</v>
+      </c>
+      <c r="H56">
+        <v>21</v>
+      </c>
+      <c r="I56">
+        <v>7575</v>
+      </c>
+      <c r="J56">
         <v>26.138716356107601</v>
       </c>
-      <c r="K54">
+      <c r="K56">
         <v>5.4670685957720604E-3</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L56" s="1">
         <v>6.1262984451640695E-4</v>
       </c>
-      <c r="M54">
+      <c r="M56">
         <v>5.70379510411827E-2</v>
       </c>
-      <c r="N54" t="s">
-        <v>123</v>
+      <c r="N56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>6.5789473684210504</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8.9224588999199699E-5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57">
+        <v>69</v>
+      </c>
+      <c r="H57">
+        <v>27</v>
+      </c>
+      <c r="I57">
+        <v>7575</v>
+      </c>
+      <c r="J57">
+        <v>20.330112721416999</v>
+      </c>
+      <c r="K57">
+        <v>1.5318009839076999E-2</v>
+      </c>
+      <c r="L57">
+        <v>1.55250784858607E-3</v>
+      </c>
+      <c r="M57">
+        <v>0.14454383417870301</v>
+      </c>
+      <c r="N57" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N54">
+  <sortState ref="A2:N57">
     <sortCondition ref="N1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DAVID/PPAR.DAVID_toJoin.xlsx
+++ b/DAVID/PPAR.DAVID_toJoin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\DAVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{372022E3-68A4-4A95-985F-17C689DF2E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{190D87C5-D7C1-4095-A0B0-6E4DD7D7D50A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPAR.DAVID" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1247,7 +1247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
